--- a/config_Release/by3d_shtx_config.xlsx
+++ b/config_Release/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -434,14 +434,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_3d_fish_lock",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_3d_fish_frozen",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"</t>
     </r>
@@ -526,7 +518,13 @@
     <t>"X3",</t>
   </si>
   <si>
-    <t>"X5",</t>
+    <t>"3dby_btn_kb",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+  </si>
+  <si>
+    <t>"X1",</t>
   </si>
 </sst>
 </file>
@@ -952,7 +950,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1023,7 +1021,7 @@
         <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1049,7 +1047,7 @@
         <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1072,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1098,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1124,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1150,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1176,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1202,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1231,7 +1229,7 @@
         <v>115</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1257,7 +1255,7 @@
         <v>115</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1283,7 +1281,7 @@
         <v>115</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1309,7 +1307,7 @@
         <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1335,7 +1333,7 @@
         <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1361,7 +1359,7 @@
         <v>115</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1387,7 +1385,7 @@
         <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1410,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1436,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1462,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1488,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1514,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1540,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1569,7 +1567,7 @@
         <v>115</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1595,7 +1593,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1621,7 +1619,7 @@
         <v>115</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1647,7 +1645,7 @@
         <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1673,7 +1671,7 @@
         <v>115</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1699,7 +1697,7 @@
         <v>115</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1725,7 +1723,7 @@
         <v>115</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1751,7 +1749,7 @@
         <v>115</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1777,7 +1775,7 @@
         <v>115</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1803,7 +1801,7 @@
         <v>115</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1829,7 +1827,7 @@
         <v>115</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1855,7 +1853,7 @@
         <v>115</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1881,7 +1879,7 @@
         <v>115</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1907,7 +1905,7 @@
         <v>115</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1933,7 +1931,7 @@
         <v>115</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1959,7 +1957,7 @@
         <v>115</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1985,7 +1983,7 @@
         <v>115</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2011,7 +2009,7 @@
         <v>115</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2037,7 +2035,7 @@
         <v>115</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2063,7 +2061,7 @@
         <v>115</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2089,7 +2087,7 @@
         <v>115</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2115,7 +2113,7 @@
         <v>115</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2141,7 +2139,7 @@
         <v>115</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2167,7 +2165,7 @@
         <v>115</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2193,7 +2191,7 @@
         <v>115</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2219,7 +2217,7 @@
         <v>115</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2245,7 +2243,7 @@
         <v>115</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2271,7 +2269,7 @@
         <v>115</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2297,7 +2295,7 @@
         <v>115</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2323,7 +2321,7 @@
         <v>115</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2349,7 +2347,7 @@
         <v>115</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2375,7 +2373,7 @@
         <v>115</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2401,7 +2399,7 @@
         <v>115</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2427,7 +2425,7 @@
         <v>115</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2453,7 +2451,7 @@
         <v>115</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2479,7 +2477,7 @@
         <v>115</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2505,7 +2503,7 @@
         <v>115</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -2531,7 +2529,7 @@
         <v>115</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -2557,7 +2555,7 @@
         <v>115</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -2583,7 +2581,7 @@
         <v>115</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -2609,7 +2607,7 @@
         <v>115</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -2635,7 +2633,7 @@
         <v>115</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -2661,7 +2659,7 @@
         <v>115</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -2687,7 +2685,7 @@
         <v>115</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -2713,7 +2711,7 @@
         <v>115</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -2739,7 +2737,7 @@
         <v>115</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -2765,7 +2763,7 @@
         <v>115</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -2791,7 +2789,7 @@
         <v>115</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -2817,7 +2815,7 @@
         <v>115</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -2843,7 +2841,7 @@
         <v>115</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2888,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2902,10 +2900,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2916,10 +2914,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2930,10 +2928,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2944,10 +2942,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2958,10 +2956,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -2972,10 +2970,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2986,10 +2984,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3000,10 +2998,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -3014,10 +3012,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3028,10 +3026,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -3042,10 +3040,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3056,10 +3054,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -3070,10 +3068,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3084,10 +3082,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -3098,10 +3096,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -3112,10 +3110,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -3126,10 +3124,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -3140,10 +3138,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -3154,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/by3d_shtx_config.xlsx
+++ b/config_Release/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
   <si>
     <t>line|行号</t>
   </si>
@@ -34,9 +34,6 @@
     <t>text|任务的文字描述</t>
   </si>
   <si>
-    <t>total|此任务总进度(比如赢金10万就填100000)</t>
-  </si>
-  <si>
     <t>random|是否是随机奖励(0否1是)</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>捕获巨大燕鱼20条（1000倍炮以上）</t>
   </si>
   <si>
-    <t>捕获30倍以上的鱼30条（1000倍炮以上）</t>
-  </si>
-  <si>
     <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
   </si>
   <si>
@@ -247,38 +241,6 @@
     <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
   </si>
   <si>
-    <r>
-      <t>捕获boss鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>条（5000倍炮以上）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼50条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鱼活动鱼10条（5000倍炮以上）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -286,10 +248,6 @@
     <t>捕鱼获得金币1亿（10000倍炮以上）</t>
   </si>
   <si>
-    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捕获boss鱼5条（10000倍炮以上）</t>
   </si>
   <si>
@@ -297,9 +255,6 @@
   </si>
   <si>
     <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
   </si>
   <si>
     <t>3dby_icon_yu29</t>
@@ -503,6 +458,34 @@
     <t>"X10000",</t>
   </si>
   <si>
+    <t>"X3",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+  </si>
+  <si>
+    <t>"X1",</t>
+  </si>
+  <si>
+    <t>rw_icon_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"X20000",</t>
   </si>
   <si>
@@ -515,16 +498,23 @@
     <t>"X100000",</t>
   </si>
   <si>
-    <t>"X3",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"X1",</t>
+    <t>捕获黄金鱼30条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼5条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,15 +948,14 @@
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="9" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="8" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -991,11 +980,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1003,28 +989,25 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1032,25 +1015,25 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1058,25 +1041,25 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1084,25 +1067,25 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1110,25 +1093,25 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1136,25 +1119,25 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1162,25 +1145,25 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1188,25 +1171,25 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1214,25 +1197,25 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1240,25 +1223,25 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1266,25 +1249,25 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1292,25 +1275,25 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1318,25 +1301,25 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1344,25 +1327,25 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1370,25 +1353,25 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1396,25 +1379,25 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1422,25 +1405,25 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1448,25 +1431,25 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1474,25 +1457,25 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1500,25 +1483,25 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1526,25 +1509,25 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1552,25 +1535,25 @@
         <v>15022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1578,25 +1561,25 @@
         <v>15023</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1604,25 +1587,25 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1630,25 +1613,25 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1656,25 +1639,25 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1682,25 +1665,25 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1708,25 +1691,25 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1734,25 +1717,25 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1760,25 +1743,25 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1786,25 +1769,25 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1812,25 +1795,25 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1838,25 +1821,25 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1864,25 +1847,25 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1890,25 +1873,25 @@
         <v>15035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1916,25 +1899,25 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1942,25 +1925,25 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1968,25 +1951,25 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1994,25 +1977,25 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2020,25 +2003,25 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2046,25 +2029,25 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2072,25 +2055,25 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2098,25 +2081,25 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2124,25 +2107,25 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2150,25 +2133,25 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2176,25 +2159,25 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2202,25 +2185,25 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2228,25 +2211,25 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2254,25 +2237,25 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2280,25 +2263,25 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2306,25 +2289,25 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2332,25 +2315,25 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2358,25 +2341,25 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2384,25 +2367,25 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2410,25 +2393,25 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I56" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2436,25 +2419,25 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I57" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2462,25 +2445,25 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I58" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2488,25 +2471,25 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2514,25 +2497,25 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2540,25 +2523,25 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2566,25 +2549,25 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2592,25 +2575,25 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2618,25 +2601,25 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2644,25 +2627,25 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
+      <c r="E65" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2670,25 +2653,25 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2696,25 +2679,25 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2722,25 +2705,25 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2748,25 +2731,25 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2774,25 +2757,25 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2800,25 +2783,25 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2826,27 +2809,28 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
+      <c r="E72" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2866,16 +2850,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2886,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2900,10 +2884,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2914,10 +2898,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2928,10 +2912,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2942,10 +2926,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2956,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -2970,10 +2954,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2984,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2998,10 +2982,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -3012,10 +2996,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3026,10 +3010,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -3040,10 +3024,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3054,10 +3038,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -3068,10 +3052,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3082,10 +3066,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -3096,10 +3080,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -3110,10 +3094,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -3124,10 +3108,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -3138,10 +3122,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -3152,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/by3d_shtx_config.xlsx
+++ b/config_Release/by3d_shtx_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
   <si>
     <t>line|行号</t>
   </si>
@@ -389,59 +389,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3dby_icon_hedansp_1_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"初级核弹碎片*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"3dby_icon_hedansp_2_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"中级核弹碎片*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_id|相同类型图标为单独ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -514,6 +461,56 @@
   </si>
   <si>
     <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券",</t>
+  </si>
+  <si>
+    <t>"10福利券",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +624,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +662,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E72"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1004,7 +1022,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1030,7 +1048,7 @@
         <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1053,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1079,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1093,7 +1111,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1105,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1131,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1157,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1183,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1212,7 +1230,7 @@
         <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1238,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1264,7 +1282,7 @@
         <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1290,7 +1308,7 @@
         <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1316,7 +1334,7 @@
         <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1342,7 +1360,7 @@
         <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1368,7 +1386,7 @@
         <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1391,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1417,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1443,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1469,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1495,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1521,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1550,7 +1568,7 @@
         <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1576,7 +1594,7 @@
         <v>109</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1602,7 +1620,7 @@
         <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1628,7 +1646,7 @@
         <v>109</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1654,7 +1672,7 @@
         <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1680,7 +1698,7 @@
         <v>109</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1706,7 +1724,7 @@
         <v>109</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1732,7 +1750,7 @@
         <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1758,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1784,7 +1802,7 @@
         <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1810,7 +1828,7 @@
         <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1836,7 +1854,7 @@
         <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1862,7 +1880,7 @@
         <v>109</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1888,7 +1906,7 @@
         <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1914,7 +1932,7 @@
         <v>109</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1940,7 +1958,7 @@
         <v>109</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1966,7 +1984,7 @@
         <v>109</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1992,7 +2010,7 @@
         <v>109</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2018,7 +2036,7 @@
         <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2044,7 +2062,7 @@
         <v>109</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2070,7 +2088,7 @@
         <v>109</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2096,7 +2114,7 @@
         <v>109</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2122,7 +2140,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2148,7 +2166,7 @@
         <v>109</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2165,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2174,7 +2192,7 @@
         <v>109</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2200,7 +2218,7 @@
         <v>109</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2226,7 +2244,7 @@
         <v>109</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2252,7 +2270,7 @@
         <v>109</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2278,7 +2296,7 @@
         <v>109</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2304,7 +2322,7 @@
         <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2330,7 +2348,7 @@
         <v>109</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2356,7 +2374,7 @@
         <v>109</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2382,7 +2400,7 @@
         <v>109</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2408,7 +2426,7 @@
         <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2434,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2460,7 +2478,7 @@
         <v>109</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2486,7 +2504,7 @@
         <v>109</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2512,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2538,7 +2556,7 @@
         <v>109</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2564,7 +2582,7 @@
         <v>109</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2590,7 +2608,7 @@
         <v>109</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2607,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2616,7 +2634,7 @@
         <v>109</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2633,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2642,7 +2660,7 @@
         <v>109</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2668,7 +2686,7 @@
         <v>109</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2694,7 +2712,7 @@
         <v>109</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2711,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2720,7 +2738,7 @@
         <v>109</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2746,7 +2764,7 @@
         <v>109</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2772,7 +2790,7 @@
         <v>109</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2798,7 +2816,7 @@
         <v>109</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2815,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2824,7 +2842,7 @@
         <v>109</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2836,19 +2854,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2861,289 +2882,716 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="E1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="C2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="C3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="C4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="C5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="C6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="C7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="C8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="13">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="C9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="13">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="C10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="C11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>55</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="C12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="13">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="C13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="13">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="C14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="13">
         <v>70</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="C15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="C16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="C17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>85</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="C18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="13">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="C19" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="13">
         <v>95</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="C20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>25</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>30</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>35</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>40</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>45</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>50</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>55</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>60</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>65</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>70</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15">
+        <v>75</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>85</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>90</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>95</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15">
+        <v>100</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/by3d_shtx_config.xlsx
+++ b/config_Release/by3d_shtx_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="task_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
   <si>
     <t>line|行号</t>
   </si>
@@ -73,444 +73,366 @@
     <t>使用3次冰冻</t>
   </si>
   <si>
-    <t>捕获小丑鱼10条</t>
-  </si>
-  <si>
-    <t>捕获小燕鱼10条</t>
-  </si>
-  <si>
-    <t>捕获小黄鳍10条</t>
+    <t>捕获大金鲨3条</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼1条</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币50万</t>
+  </si>
+  <si>
+    <t>累计开炮数1000发</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼100条</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币300万（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数2000发（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼200条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼10条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金狮子鱼8条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金海龟8只（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获BOSS鱼1只（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币500万（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数3000发（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼300条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获金蟾10只（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金锤头鲨10条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获宝藏鳄鱼3只（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼5条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数5000发（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼500条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获大金鲨20只（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获80倍以上的鱼20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获金蟾20只（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获boss鱼5条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼50条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_icon_yb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_id|相同类型图标为单独ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X1000",</t>
+  </si>
+  <si>
+    <t>"X5000",</t>
+  </si>
+  <si>
+    <t>"X2000",</t>
+  </si>
+  <si>
+    <t>"X10000",</t>
+  </si>
+  <si>
+    <t>"X3",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+  </si>
+  <si>
+    <t>"X1",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X20000",</t>
+  </si>
+  <si>
+    <t>"X30000",</t>
+  </si>
+  <si>
+    <t>"X50000",</t>
+  </si>
+  <si>
+    <t>"X100000",</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券",</t>
+  </si>
+  <si>
+    <t>"10福利券",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用1次加速</t>
+  </si>
+  <si>
+    <t>使用1次狂暴</t>
+  </si>
+  <si>
+    <t>使用1次双倍</t>
+  </si>
+  <si>
+    <t>捕获黄金灯笼鱼3条</t>
+  </si>
+  <si>
+    <t>捕获黄金海龟3只</t>
+  </si>
+  <si>
+    <t>捕获任意黄金鱼5条</t>
   </si>
   <si>
     <t>捕获黄金灯笼鱼5条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕获黄金海龟5只</t>
-  </si>
-  <si>
-    <t>捕获大金鲨3条</t>
-  </si>
-  <si>
-    <t>捕获任意黄金鱼8条</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼1条</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币50万</t>
-  </si>
-  <si>
-    <t>累计开炮数1000发</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼100条</t>
-  </si>
-  <si>
-    <t>捕获河豚20条</t>
-  </si>
-  <si>
-    <t>捕获小灯笼20条</t>
-  </si>
-  <si>
-    <t>捕获小旗鱼20条</t>
-  </si>
-  <si>
-    <t>捕获小水母10条</t>
-  </si>
-  <si>
-    <t>捕获小章鱼10条</t>
-  </si>
-  <si>
-    <t>捕获黄金灯笼鱼8条</t>
-  </si>
-  <si>
-    <t>捕获黄金海龟8只</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕获大金鲨5条</t>
-  </si>
-  <si>
-    <t>捕获黄金鱼10条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼8条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼活动鱼3条</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币300万（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>累计开炮数2000发（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼200条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获狮子鱼20条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获蝴蝶鱼20条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获20倍以上的鱼20条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获30倍以上的鱼10条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金狮子鱼8条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金海龟8只（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获大金鲨5条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金鱼15条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获20倍以上的鱼10条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获大金鲨8条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼10条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼活动鱼3条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获BOSS鱼1只（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币500万（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>累计开炮数3000发（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼300条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获巨大小丑鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获巨大灯笼鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获巨大燕鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获金蟾10只（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金锤头鲨10条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获宝藏鳄鱼3只（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼5条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>累计开炮数5000发（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼500条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获魔鬼鱼30条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获虎鲸30条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获100倍以上的鱼20条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获大金鲨20只（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获80倍以上的鱼20条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获金蟾20只（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获boss鱼5条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金鱼50条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljpd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_mrzz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_jn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_yb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_id|相同类型图标为单独ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X1000",</t>
-  </si>
-  <si>
-    <t>"X5000",</t>
-  </si>
-  <si>
-    <t>"X2000",</t>
-  </si>
-  <si>
-    <t>"X10000",</t>
-  </si>
-  <si>
-    <t>"X3",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"X1",</t>
-  </si>
-  <si>
-    <t>rw_icon_bd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X20000",</t>
-  </si>
-  <si>
-    <t>"X30000",</t>
-  </si>
-  <si>
-    <t>"X50000",</t>
-  </si>
-  <si>
-    <t>"X100000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼3条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕获黄金鱼30条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获boss鱼5条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta_t|开始时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_t|结束时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券",</t>
-  </si>
-  <si>
-    <t>"10福利券",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10福利券","10福袋",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券","10福袋",</t>
-  </si>
-  <si>
-    <t>"50福利券","10福袋",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼8条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_js</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_kb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_jb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -957,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1007,7 +929,7 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -1019,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1033,7 +955,7 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -1045,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1059,7 +981,7 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -1071,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1085,10 +1007,10 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1097,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1111,10 +1033,10 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -1123,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1137,22 +1059,22 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1163,22 +1085,22 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1189,22 +1111,22 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1215,22 +1137,22 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1241,22 +1163,22 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1267,22 +1189,22 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1293,22 +1215,22 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1319,22 +1241,22 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1345,22 +1267,22 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1371,22 +1293,22 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1397,22 +1319,22 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1423,22 +1345,22 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1449,22 +1371,22 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1475,22 +1397,22 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1501,22 +1423,22 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1527,22 +1449,22 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1553,22 +1475,22 @@
         <v>15022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1579,22 +1501,22 @@
         <v>15023</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1605,22 +1527,22 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1631,22 +1553,22 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1657,22 +1579,22 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1683,22 +1605,22 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1709,22 +1631,22 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1735,22 +1657,22 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,22 +1683,22 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1787,22 +1709,22 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1813,22 +1735,22 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1839,22 +1761,22 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1865,22 +1787,22 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1891,22 +1813,22 @@
         <v>15035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1917,22 +1839,22 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1943,22 +1865,22 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1969,22 +1891,22 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1995,22 +1917,22 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2021,22 +1943,22 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2047,22 +1969,22 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2073,22 +1995,22 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2099,22 +2021,22 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2125,22 +2047,22 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2151,22 +2073,22 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2177,22 +2099,22 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2203,22 +2125,22 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2229,22 +2151,22 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2255,22 +2177,22 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2281,22 +2203,22 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2307,22 +2229,22 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2333,22 +2255,22 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2359,22 +2281,22 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2385,22 +2307,22 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2411,22 +2333,22 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2437,22 +2359,22 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2463,22 +2385,22 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2489,22 +2411,22 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2515,22 +2437,22 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2541,22 +2463,22 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2567,22 +2489,22 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2593,22 +2515,22 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2619,22 +2541,22 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2645,22 +2567,22 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>127</v>
+      <c r="E65" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2671,22 +2593,22 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2697,22 +2619,22 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2723,22 +2645,22 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2749,22 +2671,22 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2775,22 +2697,22 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2801,22 +2723,22 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2827,22 +2749,22 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2856,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2883,10 +2805,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2897,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2911,10 +2833,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2925,10 +2847,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2939,10 +2861,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2953,10 +2875,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2967,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2981,10 +2903,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2995,10 +2917,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3009,10 +2931,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3023,10 +2945,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3037,10 +2959,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3051,10 +2973,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3065,10 +2987,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3079,10 +3001,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3093,10 +3015,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3107,10 +3029,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3121,10 +3043,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3135,10 +3057,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3149,10 +3071,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3163,10 +3085,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3177,10 +3099,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3198,10 +3120,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3219,10 +3141,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3240,10 +3162,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3261,10 +3183,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3282,10 +3204,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3303,10 +3225,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3324,10 +3246,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3345,10 +3267,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3366,10 +3288,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3387,10 +3309,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3408,10 +3330,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3429,10 +3351,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3450,10 +3372,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3471,10 +3393,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3492,10 +3414,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3513,10 +3435,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3534,10 +3456,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3555,10 +3477,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3576,10 +3498,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>

--- a/config_Release/by3d_shtx_config.xlsx
+++ b/config_Release/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
   <si>
     <t>line|行号</t>
   </si>
@@ -46,9 +46,6 @@
     <t>extra_award_txt|额外奖励描述(带{})</t>
   </si>
   <si>
-    <t>捕鱼获得金币10万</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -61,126 +58,388 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>累计开炮数500发</t>
+    <t>使用3次锁定</t>
+  </si>
+  <si>
+    <t>使用3次冰冻</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币50万</t>
+  </si>
+  <si>
+    <t>累计开炮数1000发</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼100条</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币300万（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数2000发（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼200条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼10条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金狮子鱼8条（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金海龟8只（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获BOSS鱼1只（500倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币500万（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数3000发（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼300条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获金蟾10只（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金锤头鲨10条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获宝藏鳄鱼3只（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼20条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼5条（1000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>累计开炮数5000发（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼500条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获大金鲨20只（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获80倍以上的鱼20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获金蟾20只（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获boss鱼5条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼50条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_icon_yb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_id|相同类型图标为单独ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X1000",</t>
+  </si>
+  <si>
+    <t>"X5000",</t>
+  </si>
+  <si>
+    <t>"X2000",</t>
+  </si>
+  <si>
+    <t>"X10000",</t>
+  </si>
+  <si>
+    <t>"X3",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+  </si>
+  <si>
+    <t>"X1",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X20000",</t>
+  </si>
+  <si>
+    <t>"X30000",</t>
+  </si>
+  <si>
+    <t>"X50000",</t>
+  </si>
+  <si>
+    <t>"X100000",</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券",</t>
+  </si>
+  <si>
+    <t>"10福利券",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金灯笼鱼5条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金海龟5只</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获大金鲨5条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼8条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼3条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获20倍以上的鱼10条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获大金鲨8条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼10条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼3条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼3条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼30条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼8条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任意鱼10条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币3万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币4万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任意鱼20条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>捕鱼任意鱼30条</t>
-  </si>
-  <si>
-    <t>使用3次锁定</t>
-  </si>
-  <si>
-    <t>使用3次冰冻</t>
-  </si>
-  <si>
-    <t>捕获大金鲨3条</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼1条</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币50万</t>
-  </si>
-  <si>
-    <t>累计开炮数1000发</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼100条</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币300万（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>累计开炮数2000发（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼200条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获30倍以上的鱼10条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金狮子鱼8条（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金海龟8只（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获BOSS鱼1只（500倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币500万（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>累计开炮数3000发（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼300条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获金蟾10只（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金锤头鲨10条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获宝藏鳄鱼3只（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金鱼20条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼5条（1000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>累计开炮数5000发（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼500条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获100倍以上的鱼20条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获大金鲨20只（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获80倍以上的鱼20条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获金蟾20只（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获boss鱼5条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕获黄金鱼50条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮数100发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮数200发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币3万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币4万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币5万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -189,250 +448,6 @@
   </si>
   <si>
     <t>rw_icon_mrzz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_yb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_id|相同类型图标为单独ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X1000",</t>
-  </si>
-  <si>
-    <t>"X5000",</t>
-  </si>
-  <si>
-    <t>"X2000",</t>
-  </si>
-  <si>
-    <t>"X10000",</t>
-  </si>
-  <si>
-    <t>"X3",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"X1",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X20000",</t>
-  </si>
-  <si>
-    <t>"X30000",</t>
-  </si>
-  <si>
-    <t>"X50000",</t>
-  </si>
-  <si>
-    <t>"X100000",</t>
-  </si>
-  <si>
-    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta_t|开始时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_t|结束时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券",</t>
-  </si>
-  <si>
-    <t>"10福利券",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10福利券","10福袋",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券","10福袋",</t>
-  </si>
-  <si>
-    <t>"50福利券","10福袋",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用1次加速</t>
-  </si>
-  <si>
-    <t>使用1次狂暴</t>
-  </si>
-  <si>
-    <t>使用1次双倍</t>
-  </si>
-  <si>
-    <t>捕获黄金灯笼鱼3条</t>
-  </si>
-  <si>
-    <t>捕获黄金海龟3只</t>
-  </si>
-  <si>
-    <t>捕获任意黄金鱼5条</t>
-  </si>
-  <si>
-    <t>捕获黄金灯笼鱼5条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金海龟5只</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获大金鲨5条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼8条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼3条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获20倍以上的鱼10条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获大金鲨8条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼10条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼3条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获boss鱼3条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼30条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼8条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_bd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_js</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_kb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_jb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57:H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -929,22 +944,22 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -955,22 +970,22 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -981,22 +996,22 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1007,22 +1022,22 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1033,22 +1048,22 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1059,22 +1074,22 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1088,19 +1103,19 @@
         <v>119</v>
       </c>
       <c r="D8" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1111,22 +1126,22 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1137,22 +1152,22 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1163,22 +1178,22 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1189,22 +1204,22 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D12" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1215,22 +1230,22 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1241,22 +1256,22 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1267,22 +1282,22 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1293,22 +1308,22 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1319,22 +1334,22 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1345,22 +1360,22 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1371,22 +1386,22 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1397,22 +1412,22 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1423,22 +1438,22 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1449,22 +1464,22 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1475,22 +1490,22 @@
         <v>15022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1501,22 +1516,22 @@
         <v>15023</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1527,22 +1542,22 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1553,22 +1568,22 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1579,22 +1594,22 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1605,22 +1620,22 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1631,22 +1646,22 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1657,22 +1672,22 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1683,22 +1698,22 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1709,22 +1724,22 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1735,22 +1750,22 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,22 +1776,22 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1787,22 +1802,22 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1813,22 +1828,22 @@
         <v>15035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1839,22 +1854,22 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1865,22 +1880,22 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1891,22 +1906,22 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1917,22 +1932,22 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1943,22 +1958,22 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1969,22 +1984,22 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1995,22 +2010,22 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2021,22 +2036,22 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2047,22 +2062,22 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2073,22 +2088,22 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2099,22 +2114,22 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2125,22 +2140,22 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2151,22 +2166,22 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2177,22 +2192,22 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2203,22 +2218,22 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2229,22 +2244,22 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2255,22 +2270,22 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2281,22 +2296,22 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2307,22 +2322,22 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2333,22 +2348,22 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2359,22 +2374,22 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2385,22 +2400,22 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2411,22 +2426,22 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2437,22 +2452,22 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2463,22 +2478,22 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2489,22 +2504,22 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2515,22 +2530,22 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2541,22 +2556,22 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2567,22 +2582,22 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2593,22 +2608,22 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2619,22 +2634,22 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2645,22 +2660,22 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2671,22 +2686,22 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2697,22 +2712,22 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2723,22 +2738,22 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2749,22 +2764,22 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2793,22 +2808,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2819,10 +2834,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2833,10 +2848,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2847,10 +2862,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2861,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2875,10 +2890,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2889,10 +2904,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2903,10 +2918,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2917,10 +2932,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2931,10 +2946,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2945,10 +2960,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2959,10 +2974,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2973,10 +2988,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2987,10 +3002,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3001,10 +3016,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3015,10 +3030,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3029,10 +3044,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3043,10 +3058,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3057,10 +3072,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3071,10 +3086,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3085,10 +3100,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3099,10 +3114,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3120,10 +3135,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3141,10 +3156,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3162,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3183,10 +3198,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3204,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3225,10 +3240,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3246,10 +3261,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3267,10 +3282,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3288,10 +3303,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3309,10 +3324,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3330,10 +3345,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3351,10 +3366,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3372,10 +3387,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3393,10 +3408,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3414,10 +3429,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3435,10 +3450,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3456,10 +3471,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3477,10 +3492,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3498,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>
